--- a/data/trans_dic/P02E$otras-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P02E$otras-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 10,27</t>
+          <t>2,31; 10,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,47; 12,51</t>
+          <t>3,48; 11,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,72; 12,85</t>
+          <t>3,72; 12,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,35; 10,6</t>
+          <t>3,97; 10,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,37; 8,05</t>
+          <t>3,42; 8,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,12; 11,99</t>
+          <t>4,45; 12,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,33; 9,62</t>
+          <t>4,28; 9,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,16; 8,12</t>
+          <t>4,13; 8,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,66; 10,96</t>
+          <t>4,56; 10,72</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,44; 8,45</t>
+          <t>3,47; 8,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 6,48</t>
+          <t>3,21; 6,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,68; 6,29</t>
+          <t>2,61; 6,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,33; 8,36</t>
+          <t>4,38; 8,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,54; 6,6</t>
+          <t>3,66; 6,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,86; 11,31</t>
+          <t>6,88; 11,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,48; 7,55</t>
+          <t>4,45; 7,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,88; 6,03</t>
+          <t>3,92; 6,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,66; 8,58</t>
+          <t>5,66; 8,54</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,02; 26,76</t>
+          <t>12,66; 26,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,74; 10,39</t>
+          <t>2,67; 10,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 12,65</t>
+          <t>3,55; 12,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 9,61</t>
+          <t>2,38; 9,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,46; 10,7</t>
+          <t>3,76; 10,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,02; 18,81</t>
+          <t>8,7; 18,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,78; 15,3</t>
+          <t>7,84; 15,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 8,65</t>
+          <t>3,98; 9,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,64; 14,35</t>
+          <t>7,31; 14,21</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,14; 10,62</t>
+          <t>6,22; 10,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,01; 6,87</t>
+          <t>3,84; 6,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 6,84</t>
+          <t>3,86; 7,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,87; 7,9</t>
+          <t>4,65; 7,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,21; 6,62</t>
+          <t>4,2; 6,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,68; 11,3</t>
+          <t>7,79; 11,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,68; 8,26</t>
+          <t>5,7; 8,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,47; 6,29</t>
+          <t>4,34; 6,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,62; 9,06</t>
+          <t>6,61; 9,13</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con ayuda al cuidado por parte de, al menos, una persona externa que es familiar, amigo/a, vecino/a, u otros</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6271</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12525</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8973</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>18471</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>20856</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14739</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>24742</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>33381</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>23712</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2612; 12257</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6301; 21713</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4740; 16151</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>10757; 28478</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>13295; 31570</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8818; 24305</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>16440; 35818</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>23518; 46875</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14851; 34878</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>21062</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>29026</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>19918</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>34701</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>45244</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>62506</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>55763</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>74270</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>82424</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>13421; 32330</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>20055; 40918</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>12553; 30605</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>24893; 47984</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>33147; 59297</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>47971; 80023</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>42543; 72264</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>59986; 93299</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>66618; 100528</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>24067</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9724</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10204</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>8028</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>14462</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>27401</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>32095</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>24187</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>37606</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15979; 33226</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4730; 18831</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5129; 18135</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3964; 15598</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8414; 23343</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18573; 38906</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>22945; 44758</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15957; 36288</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>26177; 50887</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>51400</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>51275</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>39095</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>61201</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>80562</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>104647</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>112601</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>131838</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>143742</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>38959; 65075</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>37728; 67043</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>29064; 54024</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>46801; 77212</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>63709; 100977</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>86382; 126047</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>93071; 134732</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>108595; 154466</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>122969; 169879</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>